--- a/Тест Сет Labirint.xlsx
+++ b/Тест Сет Labirint.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Я\QATesting duble\ТК\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Я\QATesting duble\ТК\MyFirst_Repa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="ТК 1" sheetId="1" r:id="rId1"/>
-    <sheet name="ТК 2" sheetId="2" r:id="rId2"/>
-    <sheet name="ТК 3" sheetId="3" r:id="rId3"/>
-    <sheet name="ТК 4" sheetId="4" r:id="rId4"/>
-    <sheet name="ТК 5" sheetId="5" r:id="rId5"/>
-    <sheet name="ТК 6" sheetId="6" r:id="rId6"/>
-    <sheet name="ТК 7" sheetId="7" r:id="rId7"/>
-    <sheet name="ТК 9" sheetId="8" r:id="rId8"/>
-    <sheet name="ТК 10" sheetId="9" r:id="rId9"/>
-    <sheet name="ТК М1" sheetId="10" r:id="rId10"/>
+    <sheet name="Template" sheetId="11" r:id="rId1"/>
+    <sheet name="ТК 1" sheetId="1" r:id="rId2"/>
+    <sheet name="ТК 2" sheetId="2" r:id="rId3"/>
+    <sheet name="ТК 3" sheetId="3" r:id="rId4"/>
+    <sheet name="ТК 4" sheetId="4" r:id="rId5"/>
+    <sheet name="ТК 5" sheetId="5" r:id="rId6"/>
+    <sheet name="ТК 6" sheetId="6" r:id="rId7"/>
+    <sheet name="ТК 7" sheetId="7" r:id="rId8"/>
+    <sheet name="ТК 9" sheetId="8" r:id="rId9"/>
+    <sheet name="ТК 10" sheetId="9" r:id="rId10"/>
+    <sheet name="ТК М1" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="__DdeLink__322_695150419" localSheetId="9">'ТК М1'!$C$14</definedName>
+    <definedName name="__DdeLink__322_695150419" localSheetId="10">'ТК М1'!$C$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -815,16 +816,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -851,88 +888,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,9 +955,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,6 +1243,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1268,27 +1727,27 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1297,10 +1756,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1309,108 +1768,108 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8"/>
       <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
@@ -1425,11 +1884,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A9:B9"/>
@@ -1439,258 +1899,18 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1707,185 +1927,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="34" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="34" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="35" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A5:B8"/>
     <mergeCell ref="C5:C8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -1913,28 +2133,28 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1942,131 +2162,121 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="B3:D3"/>
@@ -2075,12 +2285,22 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2097,163 +2317,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="34" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="34" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="35" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="B3:D3"/>
@@ -2262,12 +2472,22 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2284,177 +2504,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="34" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="34" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="35" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="36" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A15:B15"/>
@@ -2462,25 +2695,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2508,28 +2728,28 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2537,108 +2757,108 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
@@ -2653,16 +2873,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="B3:D3"/>
@@ -2671,12 +2881,22 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2704,28 +2924,28 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2733,131 +2953,121 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="B3:D3"/>
@@ -2866,12 +3076,22 @@
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2899,28 +3119,28 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2928,133 +3148,146 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A15:B15"/>
@@ -3062,224 +3295,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
